--- a/data/pca/factorExposure/factorExposure_2019-02-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-02-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +729,103 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1094142097066032</v>
+        <v>-0.06750485479455341</v>
       </c>
       <c r="C2">
-        <v>-0.01527075295212612</v>
+        <v>0.03295482656641135</v>
       </c>
       <c r="D2">
-        <v>-0.04007613319850157</v>
+        <v>0.01832701956311246</v>
       </c>
       <c r="E2">
-        <v>0.1471913685618292</v>
+        <v>0.03823611114948391</v>
       </c>
       <c r="F2">
-        <v>0.01509428661265269</v>
+        <v>-0.1374619840979581</v>
       </c>
       <c r="G2">
-        <v>-0.001286081909054312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.0608645363874</v>
+      </c>
+      <c r="H2">
+        <v>-0.04536648265410495</v>
+      </c>
+      <c r="I2">
+        <v>-0.0723835111707391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2113690353974181</v>
+        <v>-0.1603980866134527</v>
       </c>
       <c r="C3">
-        <v>-0.1586695034593787</v>
+        <v>0.09974713683510786</v>
       </c>
       <c r="D3">
-        <v>0.04729133977994029</v>
+        <v>-0.004756216241393817</v>
       </c>
       <c r="E3">
-        <v>0.3371223261144876</v>
+        <v>-0.005866652180409858</v>
       </c>
       <c r="F3">
-        <v>0.0880347119964861</v>
+        <v>-0.3736617598430015</v>
       </c>
       <c r="G3">
-        <v>-0.06446572030034757</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.2460002492558128</v>
+      </c>
+      <c r="H3">
+        <v>-0.0517335543087936</v>
+      </c>
+      <c r="I3">
+        <v>-0.335189214021353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09583731938894875</v>
+        <v>-0.07186781704035225</v>
       </c>
       <c r="C4">
-        <v>-0.04709155968295972</v>
+        <v>0.04700333592952098</v>
       </c>
       <c r="D4">
-        <v>-0.02825240273050099</v>
+        <v>-0.01545102087916097</v>
       </c>
       <c r="E4">
-        <v>0.07543484712166137</v>
+        <v>0.03969151773728383</v>
       </c>
       <c r="F4">
-        <v>0.03387156160222254</v>
+        <v>-0.08125267019112595</v>
       </c>
       <c r="G4">
-        <v>0.01668716730327271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.0246921490974903</v>
+      </c>
+      <c r="H4">
+        <v>-0.04477098507208817</v>
+      </c>
+      <c r="I4">
+        <v>-0.04421371902200828</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +845,277 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.02052670956444149</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01088384441263428</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.005106945718488263</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.004514280984243555</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.006893641370701118</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.004275756593903168</v>
+      </c>
+      <c r="H6">
+        <v>0.01823251575465522</v>
+      </c>
+      <c r="I6">
+        <v>0.01408006768933305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04200952623273186</v>
+        <v>-0.03582480507667049</v>
       </c>
       <c r="C7">
-        <v>-0.01519144359313743</v>
+        <v>0.01675819361698866</v>
       </c>
       <c r="D7">
-        <v>-0.02793502380532433</v>
+        <v>-0.03574575040692819</v>
       </c>
       <c r="E7">
-        <v>0.0694020482883677</v>
+        <v>0.02745290975319005</v>
       </c>
       <c r="F7">
-        <v>0.01404505771072702</v>
+        <v>-0.05673063222749725</v>
       </c>
       <c r="G7">
-        <v>-0.04754741830310951</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.0486997375727866</v>
+      </c>
+      <c r="H7">
+        <v>-0.007949752379569063</v>
+      </c>
+      <c r="I7">
+        <v>-0.010636524556403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.04762521575843049</v>
+        <v>-0.02974691918933046</v>
       </c>
       <c r="C8">
-        <v>-0.05669638105679194</v>
+        <v>0.04862350901816074</v>
       </c>
       <c r="D8">
-        <v>-0.008324619717187683</v>
+        <v>-0.01259158918573559</v>
       </c>
       <c r="E8">
-        <v>0.06700057356584338</v>
+        <v>0.02134985015242764</v>
       </c>
       <c r="F8">
-        <v>0.02677330906274977</v>
+        <v>-0.0718259339428973</v>
       </c>
       <c r="G8">
-        <v>0.01378044528182205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.03977721875654401</v>
+      </c>
+      <c r="H8">
+        <v>-0.03648128028280413</v>
+      </c>
+      <c r="I8">
+        <v>-0.05243440502709799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.08192342878157369</v>
+        <v>-0.06117671400217151</v>
       </c>
       <c r="C9">
-        <v>-0.04096710026201004</v>
+        <v>0.04239205505236094</v>
       </c>
       <c r="D9">
-        <v>-0.0365582975945865</v>
+        <v>-0.01919541927657324</v>
       </c>
       <c r="E9">
-        <v>0.06257456241679166</v>
+        <v>0.03433316587773125</v>
       </c>
       <c r="F9">
-        <v>0.04295200536773717</v>
+        <v>-0.08213441473107792</v>
       </c>
       <c r="G9">
-        <v>0.02463368771046765</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.02482759727945392</v>
+      </c>
+      <c r="H9">
+        <v>-0.04319141613767125</v>
+      </c>
+      <c r="I9">
+        <v>-0.01886854459907175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.01796560902231531</v>
+        <v>-0.03642442960044357</v>
       </c>
       <c r="C10">
-        <v>0.1650137972289028</v>
+        <v>-0.1606351552207992</v>
       </c>
       <c r="D10">
-        <v>0.02986812710702479</v>
+        <v>0.01434545593540749</v>
       </c>
       <c r="E10">
-        <v>0.06836331978177078</v>
+        <v>-0.04076478830647851</v>
       </c>
       <c r="F10">
-        <v>-0.009475709593520927</v>
+        <v>-0.06584398169074031</v>
       </c>
       <c r="G10">
-        <v>0.007031888842828562</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.0005004087750352578</v>
+      </c>
+      <c r="H10">
+        <v>-0.03141633362799635</v>
+      </c>
+      <c r="I10">
+        <v>-0.09715149223053526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05841663555990673</v>
+        <v>-0.04908929180368082</v>
       </c>
       <c r="C11">
-        <v>-0.01381234183017922</v>
+        <v>0.03206589966131911</v>
       </c>
       <c r="D11">
-        <v>0.005041792613592878</v>
+        <v>0.00547214141398588</v>
       </c>
       <c r="E11">
-        <v>0.04642149534535963</v>
+        <v>0.0101079334659567</v>
       </c>
       <c r="F11">
-        <v>-0.007032990055243719</v>
+        <v>-0.03984547670274923</v>
       </c>
       <c r="G11">
-        <v>0.001598981152199564</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.002165090941566602</v>
+      </c>
+      <c r="H11">
+        <v>-0.01509701741614537</v>
+      </c>
+      <c r="I11">
+        <v>0.001186825461284665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04520177222059173</v>
+        <v>-0.04495129487857318</v>
       </c>
       <c r="C12">
-        <v>-0.01772114026511067</v>
+        <v>0.02827830981448433</v>
       </c>
       <c r="D12">
-        <v>0.001763042532370614</v>
+        <v>-0.005658327101925843</v>
       </c>
       <c r="E12">
-        <v>0.02734277932850212</v>
+        <v>0.01176271253427841</v>
       </c>
       <c r="F12">
-        <v>0.008485737951302233</v>
+        <v>-0.01456922892408525</v>
       </c>
       <c r="G12">
-        <v>-0.006677010473955026</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.005552214152167893</v>
+      </c>
+      <c r="H12">
+        <v>-0.003873442611222587</v>
+      </c>
+      <c r="I12">
+        <v>0.001032066216097725</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06342110089001715</v>
+        <v>-0.04335308955285937</v>
       </c>
       <c r="C13">
-        <v>-0.02767908320233527</v>
+        <v>0.02591362383265411</v>
       </c>
       <c r="D13">
-        <v>0.006321579331815151</v>
+        <v>0.01517510888267474</v>
       </c>
       <c r="E13">
-        <v>0.1122748420038139</v>
+        <v>0.008068097274131526</v>
       </c>
       <c r="F13">
-        <v>0.007037407816058993</v>
+        <v>-0.1045541565795442</v>
       </c>
       <c r="G13">
-        <v>-0.007705403361800768</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.04136411330817235</v>
+      </c>
+      <c r="H13">
+        <v>-0.02373255236664899</v>
+      </c>
+      <c r="I13">
+        <v>-0.03385710191780152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03414180674266431</v>
+        <v>-0.0275019768675714</v>
       </c>
       <c r="C14">
-        <v>-0.02394361729392968</v>
+        <v>0.02023446714439474</v>
       </c>
       <c r="D14">
-        <v>-0.02713841456134809</v>
+        <v>-0.006367879909329847</v>
       </c>
       <c r="E14">
-        <v>0.03337845190173927</v>
+        <v>0.02730548356726453</v>
       </c>
       <c r="F14">
-        <v>-0.01874270585865769</v>
+        <v>-0.03811327697715958</v>
       </c>
       <c r="G14">
-        <v>-0.01400701924689909</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.05737152480124866</v>
+      </c>
+      <c r="H14">
+        <v>-0.0189039711945294</v>
+      </c>
+      <c r="I14">
+        <v>-0.01324204534377781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1135,45 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04790996311846829</v>
+        <v>-0.0427445929410309</v>
       </c>
       <c r="C16">
-        <v>-0.0234994025039515</v>
+        <v>0.03606803880781361</v>
       </c>
       <c r="D16">
-        <v>0.0068292121510964</v>
+        <v>6.135552293404432e-06</v>
       </c>
       <c r="E16">
-        <v>0.0346366512834239</v>
+        <v>0.009644083856887307</v>
       </c>
       <c r="F16">
-        <v>0.00247069943644556</v>
+        <v>-0.03527595640170862</v>
       </c>
       <c r="G16">
-        <v>-0.009469272931109673</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.005061375084660479</v>
+      </c>
+      <c r="H16">
+        <v>-0.003122144072760869</v>
+      </c>
+      <c r="I16">
+        <v>-0.005923774328614511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1193,16 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1222,103 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.05662737378238733</v>
+        <v>-0.04793767661733898</v>
       </c>
       <c r="C19">
-        <v>-0.0477786908367057</v>
+        <v>0.04283348622154587</v>
       </c>
       <c r="D19">
-        <v>0.0002069187106421365</v>
+        <v>0.001071504604408873</v>
       </c>
       <c r="E19">
-        <v>0.08306445355667742</v>
+        <v>0.02336917751114419</v>
       </c>
       <c r="F19">
-        <v>-0.006363553213482948</v>
+        <v>-0.08647982560855628</v>
       </c>
       <c r="G19">
-        <v>-0.04318954293611182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.06772263821447351</v>
+      </c>
+      <c r="H19">
+        <v>-0.005328619021981028</v>
+      </c>
+      <c r="I19">
+        <v>-0.05596706028534832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.03764004775810197</v>
+        <v>-0.01765292841383419</v>
       </c>
       <c r="C20">
-        <v>-0.0403658831118721</v>
+        <v>0.02923715201964538</v>
       </c>
       <c r="D20">
-        <v>-0.014721545643673</v>
+        <v>-0.006937724835719756</v>
       </c>
       <c r="E20">
-        <v>0.06892377000338709</v>
+        <v>0.02137424361192893</v>
       </c>
       <c r="F20">
-        <v>0.006022444739775686</v>
+        <v>-0.06834637720858699</v>
       </c>
       <c r="G20">
-        <v>-0.03264745153426261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.06500322570927305</v>
+      </c>
+      <c r="H20">
+        <v>-0.009706236085683212</v>
+      </c>
+      <c r="I20">
+        <v>-0.05111812485904361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03515291089212409</v>
+        <v>-0.03138784705531045</v>
       </c>
       <c r="C21">
-        <v>-0.03057958677534334</v>
+        <v>0.0290767991926874</v>
       </c>
       <c r="D21">
-        <v>-0.004934614766505998</v>
+        <v>-0.01283318120966685</v>
       </c>
       <c r="E21">
-        <v>0.1157795976636198</v>
+        <v>0.007017095252669116</v>
       </c>
       <c r="F21">
-        <v>0.006269671043382084</v>
+        <v>-0.0831123339973191</v>
       </c>
       <c r="G21">
-        <v>0.03648722610340752</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.0295237141622393</v>
+      </c>
+      <c r="H21">
+        <v>-0.04551088961750243</v>
+      </c>
+      <c r="I21">
+        <v>0.01395397517884588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1338,16 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1367,335 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.05101294129123453</v>
+        <v>-0.04240358184455131</v>
       </c>
       <c r="C24">
-        <v>-0.02132328254616512</v>
+        <v>0.02909917173078311</v>
       </c>
       <c r="D24">
-        <v>0.002449292600689133</v>
+        <v>-0.000278947170555639</v>
       </c>
       <c r="E24">
-        <v>0.04544324929129607</v>
+        <v>0.01104946372578237</v>
       </c>
       <c r="F24">
-        <v>0.01049332223367169</v>
+        <v>-0.03898345723047494</v>
       </c>
       <c r="G24">
-        <v>-0.007316624202918418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.001838203002857743</v>
+      </c>
+      <c r="H24">
+        <v>-0.006218221913036661</v>
+      </c>
+      <c r="I24">
+        <v>-0.001525747972651449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.05159954404431621</v>
+        <v>-0.04833685373497598</v>
       </c>
       <c r="C25">
-        <v>-0.0130187068304961</v>
+        <v>0.02633399885783051</v>
       </c>
       <c r="D25">
-        <v>0.00215302521484809</v>
+        <v>0.0009731195249504134</v>
       </c>
       <c r="E25">
-        <v>0.04364595157274092</v>
+        <v>0.009401425182913946</v>
       </c>
       <c r="F25">
-        <v>-0.0001588324280390135</v>
+        <v>-0.04518222025487946</v>
       </c>
       <c r="G25">
-        <v>0.002197255384361438</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.000729636529674535</v>
+      </c>
+      <c r="H25">
+        <v>-0.01213751313982742</v>
+      </c>
+      <c r="I25">
+        <v>0.006150000509914522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02187841317427064</v>
+        <v>-0.01758417749105319</v>
       </c>
       <c r="C26">
-        <v>-0.0279248560058882</v>
+        <v>0.02600756047131933</v>
       </c>
       <c r="D26">
-        <v>-0.005064052867055968</v>
+        <v>0.003756774348730066</v>
       </c>
       <c r="E26">
-        <v>0.0403951563832009</v>
+        <v>0.001240791490037575</v>
       </c>
       <c r="F26">
-        <v>-0.02502355100291391</v>
+        <v>-0.04582571357426525</v>
       </c>
       <c r="G26">
-        <v>-0.007564500684451626</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03867451250205146</v>
+      </c>
+      <c r="H26">
+        <v>-0.01554412771808812</v>
+      </c>
+      <c r="I26">
+        <v>-0.001448266734448188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1205597448369886</v>
+        <v>-0.07232585863205314</v>
       </c>
       <c r="C27">
-        <v>-0.02738138075451236</v>
+        <v>0.02751674543629527</v>
       </c>
       <c r="D27">
-        <v>-0.01574723723185961</v>
+        <v>-0.005101624719406628</v>
       </c>
       <c r="E27">
-        <v>0.08920679271310385</v>
+        <v>0.03433562874035033</v>
       </c>
       <c r="F27">
-        <v>0.01936975390011286</v>
+        <v>-0.06765581487153219</v>
       </c>
       <c r="G27">
-        <v>0.01609400028589512</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01559164260766352</v>
+      </c>
+      <c r="H27">
+        <v>-0.02786158420993385</v>
+      </c>
+      <c r="I27">
+        <v>-0.03380801419228165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.01261285164314602</v>
+        <v>-0.05235564543694537</v>
       </c>
       <c r="C28">
-        <v>0.2484419154258806</v>
+        <v>-0.2416439319168775</v>
       </c>
       <c r="D28">
-        <v>0.03919384347387003</v>
+        <v>0.01046053907456829</v>
       </c>
       <c r="E28">
-        <v>0.04614598208678047</v>
+        <v>-0.0593291048207192</v>
       </c>
       <c r="F28">
-        <v>-0.01207400997499185</v>
+        <v>-0.05578591073523317</v>
       </c>
       <c r="G28">
-        <v>0.03698732349272087</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.002810395288508205</v>
+      </c>
+      <c r="H28">
+        <v>-0.03663479707541187</v>
+      </c>
+      <c r="I28">
+        <v>-0.1507759571919884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.0257162223069374</v>
+        <v>-0.0232416822790169</v>
       </c>
       <c r="C29">
-        <v>-0.02418245503164522</v>
+        <v>0.01762930751894355</v>
       </c>
       <c r="D29">
-        <v>-0.0316224071575659</v>
+        <v>-0.009953008535649292</v>
       </c>
       <c r="E29">
-        <v>0.03620686934489704</v>
+        <v>0.02851283108420491</v>
       </c>
       <c r="F29">
-        <v>-0.008548255389167037</v>
+        <v>-0.03479332724056057</v>
       </c>
       <c r="G29">
-        <v>-0.0006843794148555894</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.05811559906214856</v>
+      </c>
+      <c r="H29">
+        <v>-0.02486911055770544</v>
+      </c>
+      <c r="I29">
+        <v>-0.002419623212241993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1155987345170396</v>
+        <v>-0.09119635277608684</v>
       </c>
       <c r="C30">
-        <v>-0.02169061025643145</v>
+        <v>0.0504222631436266</v>
       </c>
       <c r="D30">
-        <v>-0.03046621327199731</v>
+        <v>0.0372165510232914</v>
       </c>
       <c r="E30">
-        <v>0.110136950687005</v>
+        <v>0.0334584810223018</v>
       </c>
       <c r="F30">
-        <v>-0.009057985819880562</v>
+        <v>-0.1035412578461892</v>
       </c>
       <c r="G30">
-        <v>-0.02487427418959921</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.02201109932740355</v>
+      </c>
+      <c r="H30">
+        <v>0.01222404129985784</v>
+      </c>
+      <c r="I30">
+        <v>0.005361623633562198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.0693192835575831</v>
+        <v>-0.06125284237732917</v>
       </c>
       <c r="C31">
-        <v>-0.01092677329329825</v>
+        <v>0.02210424243318848</v>
       </c>
       <c r="D31">
-        <v>-0.01657328566165116</v>
+        <v>0.009972784500216278</v>
       </c>
       <c r="E31">
-        <v>-0.01780813813639619</v>
+        <v>0.02443655152251503</v>
       </c>
       <c r="F31">
-        <v>-0.04462648262713882</v>
+        <v>-0.0005282453121922231</v>
       </c>
       <c r="G31">
-        <v>-0.006887198400203403</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04270394298159096</v>
+      </c>
+      <c r="H31">
+        <v>-0.03817279732833091</v>
+      </c>
+      <c r="I31">
+        <v>-0.01776366525252284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.07000607709945203</v>
+        <v>-0.04250947684234764</v>
       </c>
       <c r="C32">
-        <v>-0.03960735938169616</v>
+        <v>0.04440488860652781</v>
       </c>
       <c r="D32">
-        <v>-0.02163696348373571</v>
+        <v>-0.01629643613499695</v>
       </c>
       <c r="E32">
-        <v>0.1015042344774725</v>
+        <v>0.03579293271207983</v>
       </c>
       <c r="F32">
-        <v>-0.00417549051678961</v>
+        <v>-0.08723060673426807</v>
       </c>
       <c r="G32">
-        <v>-0.01991323777941526</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.04071068816958079</v>
+      </c>
+      <c r="H32">
+        <v>-0.02425515959890139</v>
+      </c>
+      <c r="I32">
+        <v>-0.03826342387640446</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.06940909081260725</v>
+        <v>-0.05639495147257723</v>
       </c>
       <c r="C33">
-        <v>-0.04970696479765397</v>
+        <v>0.05342165211816757</v>
       </c>
       <c r="D33">
-        <v>-0.01362873410271803</v>
+        <v>0.01789614548329449</v>
       </c>
       <c r="E33">
-        <v>0.07956497060599627</v>
+        <v>0.01536500629683485</v>
       </c>
       <c r="F33">
-        <v>-0.01056770267770154</v>
+        <v>-0.07704647400963488</v>
       </c>
       <c r="G33">
-        <v>0.03149194686850652</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.04318428106574709</v>
+      </c>
+      <c r="H33">
+        <v>-0.04029253487656639</v>
+      </c>
+      <c r="I33">
+        <v>-0.004538143611926056</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.05011999551988089</v>
+        <v>-0.04443100123442217</v>
       </c>
       <c r="C34">
-        <v>-0.02016905799078785</v>
+        <v>0.03456277199491702</v>
       </c>
       <c r="D34">
-        <v>-0.004047093740965678</v>
+        <v>-0.005196682895270588</v>
       </c>
       <c r="E34">
-        <v>0.02857353523967268</v>
+        <v>0.01929169493855801</v>
       </c>
       <c r="F34">
-        <v>0.002905063631912919</v>
+        <v>-0.03293121379356906</v>
       </c>
       <c r="G34">
-        <v>-0.01149405634438792</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.009301559806903552</v>
+      </c>
+      <c r="H34">
+        <v>-0.006097780328042273</v>
+      </c>
+      <c r="I34">
+        <v>-0.002690596705013852</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1715,45 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01585026412171522</v>
+        <v>-0.01621187015691828</v>
       </c>
       <c r="C36">
-        <v>-0.001686393114044743</v>
+        <v>0.003345515526061391</v>
       </c>
       <c r="D36">
-        <v>-0.01008862788252353</v>
+        <v>-0.004565487335305409</v>
       </c>
       <c r="E36">
-        <v>0.02400247479196938</v>
+        <v>0.00965094036888601</v>
       </c>
       <c r="F36">
-        <v>-0.01419537362883131</v>
+        <v>-0.02628143021207927</v>
       </c>
       <c r="G36">
-        <v>-0.004612247445607899</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.03683579045653383</v>
+      </c>
+      <c r="H36">
+        <v>-0.02267051328818337</v>
+      </c>
+      <c r="I36">
+        <v>0.007108646795654122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1773,219 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.0484064281754048</v>
+        <v>-0.03458041632125514</v>
       </c>
       <c r="C38">
-        <v>-0.01880126698269443</v>
+        <v>0.01504367586478864</v>
       </c>
       <c r="D38">
-        <v>-0.02241693428069648</v>
+        <v>-0.00373991641024607</v>
       </c>
       <c r="E38">
-        <v>0.02394626674977925</v>
+        <v>0.01307756862963774</v>
       </c>
       <c r="F38">
-        <v>0.03135031242375524</v>
+        <v>-0.04748923046792609</v>
       </c>
       <c r="G38">
-        <v>0.007499727782911934</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02372001116104061</v>
+      </c>
+      <c r="H38">
+        <v>-0.02953111746898894</v>
+      </c>
+      <c r="I38">
+        <v>0.0145909973058778</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.07131092278983343</v>
+        <v>-0.05395889051139353</v>
       </c>
       <c r="C39">
-        <v>-0.02099456165928101</v>
+        <v>0.04579541869966699</v>
       </c>
       <c r="D39">
-        <v>-0.004526280454885684</v>
+        <v>0.004220934631767999</v>
       </c>
       <c r="E39">
-        <v>0.04291720606403848</v>
+        <v>0.01762331867827855</v>
       </c>
       <c r="F39">
-        <v>0.00266073257485651</v>
+        <v>-0.05505393309965203</v>
       </c>
       <c r="G39">
-        <v>0.01067770478172294</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.007149539604015699</v>
+      </c>
+      <c r="H39">
+        <v>-0.02157303078177286</v>
+      </c>
+      <c r="I39">
+        <v>0.02189746888412458</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07806904425580245</v>
+        <v>-0.05505734754582388</v>
       </c>
       <c r="C40">
-        <v>-0.04319619468169641</v>
+        <v>0.04236334428152907</v>
       </c>
       <c r="D40">
-        <v>-0.009238106131757131</v>
+        <v>0.01939550198495078</v>
       </c>
       <c r="E40">
-        <v>0.1114274463962891</v>
+        <v>0.02479927193531252</v>
       </c>
       <c r="F40">
-        <v>0.02368231423705688</v>
+        <v>-0.09439668680134189</v>
       </c>
       <c r="G40">
-        <v>0.004505312253249411</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.04649041971699243</v>
+      </c>
+      <c r="H40">
+        <v>-0.02414515232357504</v>
+      </c>
+      <c r="I40">
+        <v>-0.05927067845730506</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.005332037219265459</v>
+        <v>-0.00386223826533947</v>
       </c>
       <c r="C41">
-        <v>-0.02483469004228784</v>
+        <v>0.01208767422315815</v>
       </c>
       <c r="D41">
-        <v>-0.03039761430479368</v>
+        <v>-0.0003210251697273607</v>
       </c>
       <c r="E41">
-        <v>0.01297240078844343</v>
+        <v>0.01147038918473935</v>
       </c>
       <c r="F41">
-        <v>-0.01530796185976058</v>
+        <v>-0.01264217718769209</v>
       </c>
       <c r="G41">
-        <v>0.02164928310346993</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03763249660534136</v>
+      </c>
+      <c r="H41">
+        <v>-0.03830855324898887</v>
+      </c>
+      <c r="I41">
+        <v>-0.02536987341098875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.1444618829475365</v>
+        <v>-0.2246618753956299</v>
       </c>
       <c r="C42">
-        <v>-0.2175563396667982</v>
+        <v>0.2849953938205035</v>
       </c>
       <c r="D42">
-        <v>0.9269779453336595</v>
+        <v>0.05427242269750694</v>
       </c>
       <c r="E42">
-        <v>-0.1038533562350591</v>
+        <v>-0.8971360967507241</v>
       </c>
       <c r="F42">
-        <v>-0.09340761932914896</v>
+        <v>0.1714755881763391</v>
       </c>
       <c r="G42">
-        <v>-0.05444443642356236</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.006518340915616704</v>
+      </c>
+      <c r="H42">
+        <v>0.007350661453363975</v>
+      </c>
+      <c r="I42">
+        <v>-0.06554680819774161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.008746266679425461</v>
+        <v>-0.007981495728852962</v>
       </c>
       <c r="C43">
-        <v>-0.02296317101937747</v>
+        <v>0.01372080522354742</v>
       </c>
       <c r="D43">
-        <v>-0.02088162802376934</v>
+        <v>0.002331238443136754</v>
       </c>
       <c r="E43">
-        <v>0.0339607213344669</v>
+        <v>0.01116018721379883</v>
       </c>
       <c r="F43">
-        <v>-0.007402918910190907</v>
+        <v>-0.02937938571028403</v>
       </c>
       <c r="G43">
-        <v>-0.004075924751920926</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.03249093499192131</v>
+      </c>
+      <c r="H43">
+        <v>-0.02484660147169271</v>
+      </c>
+      <c r="I43">
+        <v>-0.01927348347658391</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.04088751087969666</v>
+        <v>-0.02796291095598639</v>
       </c>
       <c r="C44">
-        <v>-0.04816937889158674</v>
+        <v>0.03924057204791055</v>
       </c>
       <c r="D44">
-        <v>-0.01315710893629432</v>
+        <v>-0.003150713655903906</v>
       </c>
       <c r="E44">
-        <v>0.1370690160084226</v>
+        <v>0.01212302965188879</v>
       </c>
       <c r="F44">
-        <v>-0.0294314910767068</v>
+        <v>-0.1214328062338695</v>
       </c>
       <c r="G44">
-        <v>0.04079982433608454</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.09600845472540599</v>
+      </c>
+      <c r="H44">
+        <v>-0.05576178985689082</v>
+      </c>
+      <c r="I44">
+        <v>-0.05183292265622959</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2005,103 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02909558147321384</v>
+        <v>-0.02519066381265588</v>
       </c>
       <c r="C46">
-        <v>-0.0283442721381649</v>
+        <v>0.03447997985391898</v>
       </c>
       <c r="D46">
-        <v>-0.03159113234765953</v>
+        <v>0.00183743045736166</v>
       </c>
       <c r="E46">
-        <v>0.03497944456867174</v>
+        <v>0.03137263875101715</v>
       </c>
       <c r="F46">
-        <v>-0.01970385844051193</v>
+        <v>-0.04847856886311844</v>
       </c>
       <c r="G46">
-        <v>0.009766355474994597</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.063266594597638</v>
+      </c>
+      <c r="H46">
+        <v>-0.02108898593007027</v>
+      </c>
+      <c r="I46">
+        <v>-0.00512899548535533</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09354385802922818</v>
+        <v>-0.08763565088084252</v>
       </c>
       <c r="C47">
-        <v>-0.009912664146138596</v>
+        <v>0.01907873131904222</v>
       </c>
       <c r="D47">
-        <v>-0.01997598830148789</v>
+        <v>0.004663724331126959</v>
       </c>
       <c r="E47">
-        <v>-0.01750334527245582</v>
+        <v>0.02822147762326313</v>
       </c>
       <c r="F47">
-        <v>-0.02044793722334618</v>
+        <v>0.01005045708707581</v>
       </c>
       <c r="G47">
-        <v>0.006872431831558484</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.05616723331158753</v>
+      </c>
+      <c r="H47">
+        <v>-0.03777755756257545</v>
+      </c>
+      <c r="I47">
+        <v>-0.03143940059539677</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.02028760115331874</v>
+        <v>-0.02072618271167856</v>
       </c>
       <c r="C48">
-        <v>-0.02347236352133426</v>
+        <v>0.01884294185814567</v>
       </c>
       <c r="D48">
-        <v>-0.016106425239363</v>
+        <v>-0.001517785218911152</v>
       </c>
       <c r="E48">
-        <v>0.03159646551520184</v>
+        <v>0.01400565815173762</v>
       </c>
       <c r="F48">
-        <v>-0.004781302261590016</v>
+        <v>-0.02822631852220871</v>
       </c>
       <c r="G48">
-        <v>0.001390771975724557</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02505273350724596</v>
+      </c>
+      <c r="H48">
+        <v>-0.01993130818700908</v>
+      </c>
+      <c r="I48">
+        <v>-0.01217593311222647</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2121,74 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.09652780180597842</v>
+        <v>-0.08829582542188161</v>
       </c>
       <c r="C50">
-        <v>-0.02980646034340958</v>
+        <v>0.04089328118384958</v>
       </c>
       <c r="D50">
-        <v>-0.02109420647213682</v>
+        <v>-0.01181433116758592</v>
       </c>
       <c r="E50">
-        <v>-0.01386058052999577</v>
+        <v>0.02786382090465384</v>
       </c>
       <c r="F50">
-        <v>-0.04248500049608948</v>
+        <v>0.006112226842634503</v>
       </c>
       <c r="G50">
-        <v>0.002009392060948888</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.04143386048514638</v>
+      </c>
+      <c r="H50">
+        <v>0.002936400169598531</v>
+      </c>
+      <c r="I50">
+        <v>0.004321228479020061</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05378264741647548</v>
+        <v>-0.03908226397777869</v>
       </c>
       <c r="C51">
-        <v>0.01530436572153265</v>
+        <v>-0.003840052408252467</v>
       </c>
       <c r="D51">
-        <v>-0.000805726396668123</v>
+        <v>0.01201207453736945</v>
       </c>
       <c r="E51">
-        <v>0.08881021371281907</v>
+        <v>0.008479917905787952</v>
       </c>
       <c r="F51">
-        <v>-0.04106389014441247</v>
+        <v>-0.09783524092013202</v>
       </c>
       <c r="G51">
-        <v>0.02723556029798927</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.06190530120832916</v>
+      </c>
+      <c r="H51">
+        <v>-0.05825295322118145</v>
+      </c>
+      <c r="I51">
+        <v>-0.02530861784066328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2208,277 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1425989927842019</v>
+        <v>-0.1247342582054037</v>
       </c>
       <c r="C53">
-        <v>-0.02007502027673965</v>
+        <v>0.03856207189337146</v>
       </c>
       <c r="D53">
-        <v>-0.04855121274236313</v>
+        <v>0.004543695266083622</v>
       </c>
       <c r="E53">
-        <v>-0.04839480773191741</v>
+        <v>0.05848192974544258</v>
       </c>
       <c r="F53">
-        <v>-0.03365959211035453</v>
+        <v>0.04487386865804593</v>
       </c>
       <c r="G53">
-        <v>0.009985826744543468</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.002097219087445794</v>
+      </c>
+      <c r="H53">
+        <v>-0.03386214660348785</v>
+      </c>
+      <c r="I53">
+        <v>-0.04306989117254759</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.0255821330533061</v>
+        <v>-0.02505230067581068</v>
       </c>
       <c r="C54">
-        <v>-0.008464258567778035</v>
+        <v>0.003506427812407713</v>
       </c>
       <c r="D54">
-        <v>-0.02880903394779782</v>
+        <v>-0.005355403014224333</v>
       </c>
       <c r="E54">
-        <v>0.04108037842210498</v>
+        <v>0.02534665793147775</v>
       </c>
       <c r="F54">
-        <v>-0.01492309730688534</v>
+        <v>-0.03560760047247874</v>
       </c>
       <c r="G54">
-        <v>0.02743489756420497</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05407194177623511</v>
+      </c>
+      <c r="H54">
+        <v>-0.04464476322067239</v>
+      </c>
+      <c r="I54">
+        <v>-0.02324158908110411</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1049429112948982</v>
+        <v>-0.09864482116785492</v>
       </c>
       <c r="C55">
-        <v>-0.003346105849695346</v>
+        <v>0.03335979486744847</v>
       </c>
       <c r="D55">
-        <v>-0.03988093213333069</v>
+        <v>-0.01261188199286422</v>
       </c>
       <c r="E55">
-        <v>-0.01853155293321694</v>
+        <v>0.0381013400064002</v>
       </c>
       <c r="F55">
-        <v>0.02060355450631706</v>
+        <v>0.03110510995090737</v>
       </c>
       <c r="G55">
-        <v>-0.02493022290852358</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01433873719006863</v>
+      </c>
+      <c r="H55">
+        <v>0.002463107184307085</v>
+      </c>
+      <c r="I55">
+        <v>-0.01598195148426769</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1773044166339892</v>
+        <v>-0.1632024420188128</v>
       </c>
       <c r="C56">
-        <v>0.01694647086941735</v>
+        <v>0.02020079406371208</v>
       </c>
       <c r="D56">
-        <v>-0.08847870230237143</v>
+        <v>-0.001178346609966552</v>
       </c>
       <c r="E56">
-        <v>-0.1072150559984019</v>
+        <v>0.08981267522355728</v>
       </c>
       <c r="F56">
-        <v>0.0006939674245197524</v>
+        <v>0.08952096521510249</v>
       </c>
       <c r="G56">
-        <v>-0.04334522581686489</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.04353614641975854</v>
+      </c>
+      <c r="H56">
+        <v>0.008155889041491353</v>
+      </c>
+      <c r="I56">
+        <v>-0.04118230561754642</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.08311167270571684</v>
+        <v>-0.06482315334422598</v>
       </c>
       <c r="C57">
-        <v>-0.02442814105582174</v>
+        <v>0.03052356654569931</v>
       </c>
       <c r="D57">
-        <v>-0.01642430149982176</v>
+        <v>0.01779616351656769</v>
       </c>
       <c r="E57">
-        <v>0.05010406373327657</v>
+        <v>0.007207708832393996</v>
       </c>
       <c r="F57">
-        <v>-0.05568346908490381</v>
+        <v>-0.06522624042324827</v>
       </c>
       <c r="G57">
-        <v>-0.005704405913717573</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.03724682486250291</v>
+      </c>
+      <c r="H57">
+        <v>-0.01613322584840277</v>
+      </c>
+      <c r="I57">
+        <v>-0.0085355963327213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.2043635325188069</v>
+        <v>-0.2095005237402974</v>
       </c>
       <c r="C58">
-        <v>-0.02103916845095475</v>
+        <v>0.1020489814426721</v>
       </c>
       <c r="D58">
-        <v>-0.003973801430792553</v>
+        <v>0.09048552710697544</v>
       </c>
       <c r="E58">
-        <v>0.1315385309004272</v>
+        <v>-0.01262186128315113</v>
       </c>
       <c r="F58">
-        <v>-0.01660259399009228</v>
+        <v>-0.254489076661346</v>
       </c>
       <c r="G58">
-        <v>-0.111171522055285</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.3781212551592177</v>
+      </c>
+      <c r="H58">
+        <v>0.3012503354282367</v>
+      </c>
+      <c r="I58">
+        <v>0.3788107921578118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.01734374213589797</v>
+        <v>-0.05286149148422633</v>
       </c>
       <c r="C59">
-        <v>0.1988584752692966</v>
+        <v>-0.1993493134843505</v>
       </c>
       <c r="D59">
-        <v>0.006282893298569818</v>
+        <v>0.02423267659286736</v>
       </c>
       <c r="E59">
-        <v>0.05705205560382166</v>
+        <v>-0.02159601169281079</v>
       </c>
       <c r="F59">
-        <v>0.002130512202950054</v>
+        <v>-0.06792466101655861</v>
       </c>
       <c r="G59">
-        <v>0.008327498815840446</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02173077083809713</v>
+      </c>
+      <c r="H59">
+        <v>-0.01370265393434097</v>
+      </c>
+      <c r="I59">
+        <v>-0.05202453815405209</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1881051364182343</v>
+        <v>-0.1901113939747038</v>
       </c>
       <c r="C60">
-        <v>0.09748403858311659</v>
+        <v>-0.0476166499941949</v>
       </c>
       <c r="D60">
-        <v>-0.002366671147333969</v>
+        <v>0.05339242697098047</v>
       </c>
       <c r="E60">
-        <v>0.179498504725097</v>
+        <v>0.006811612674983106</v>
       </c>
       <c r="F60">
-        <v>-0.01285295210546061</v>
+        <v>-0.200989589641872</v>
       </c>
       <c r="G60">
-        <v>0.07643002862182251</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.2804348422383278</v>
+      </c>
+      <c r="H60">
+        <v>0.007745618738623368</v>
+      </c>
+      <c r="I60">
+        <v>0.09034804039960177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04216936091041188</v>
+        <v>-0.03831375706578976</v>
       </c>
       <c r="C61">
-        <v>-0.01067085696474209</v>
+        <v>0.02896585761849965</v>
       </c>
       <c r="D61">
-        <v>-0.00182272255560657</v>
+        <v>-0.0007858808824513513</v>
       </c>
       <c r="E61">
-        <v>0.03935204253505912</v>
+        <v>0.008054983391508336</v>
       </c>
       <c r="F61">
-        <v>0.008240619981396712</v>
+        <v>-0.0401253989312852</v>
       </c>
       <c r="G61">
-        <v>0.00627278800082607</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.00208642869169758</v>
+      </c>
+      <c r="H61">
+        <v>-0.01803321612873746</v>
+      </c>
+      <c r="I61">
+        <v>0.03695502688071855</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2498,219 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04438523585868247</v>
+        <v>-0.03147877127199186</v>
       </c>
       <c r="C63">
-        <v>-0.01354285374634882</v>
+        <v>0.02197879731549624</v>
       </c>
       <c r="D63">
-        <v>-0.01383648568659324</v>
+        <v>0.001267622948404206</v>
       </c>
       <c r="E63">
-        <v>0.04313676126432149</v>
+        <v>0.01497187725893662</v>
       </c>
       <c r="F63">
-        <v>-0.02293597608828008</v>
+        <v>-0.02878947589590178</v>
       </c>
       <c r="G63">
-        <v>-0.004583782797384734</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.05211321709967229</v>
+      </c>
+      <c r="H63">
+        <v>-0.007578166611478919</v>
+      </c>
+      <c r="I63">
+        <v>-0.03770645879916595</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.07712760750494484</v>
+        <v>-0.06036648718242061</v>
       </c>
       <c r="C64">
-        <v>-0.05304276693759744</v>
+        <v>0.04321707745904113</v>
       </c>
       <c r="D64">
-        <v>-0.05075236629132539</v>
+        <v>-0.01505939360822652</v>
       </c>
       <c r="E64">
-        <v>0.0487952688589915</v>
+        <v>0.04016110810668214</v>
       </c>
       <c r="F64">
-        <v>0.03339000544393277</v>
+        <v>-0.05156538273777655</v>
       </c>
       <c r="G64">
-        <v>0.09477007988871128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.004192780253032631</v>
+      </c>
+      <c r="H64">
+        <v>-0.08358550182052393</v>
+      </c>
+      <c r="I64">
+        <v>-0.03643501484663294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.02249207017328049</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.0109413647703786</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.005818628655285909</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.005409766589228241</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.003565785608424681</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.008371496653151626</v>
+      </c>
+      <c r="H65">
+        <v>0.01757683741864885</v>
+      </c>
+      <c r="I65">
+        <v>0.01568805075541281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.08347396443431487</v>
+        <v>-0.06725942372698784</v>
       </c>
       <c r="C66">
-        <v>-0.03468682370057181</v>
+        <v>0.05543260472098731</v>
       </c>
       <c r="D66">
-        <v>-0.03408973401183584</v>
+        <v>0.01197314705458375</v>
       </c>
       <c r="E66">
-        <v>0.08449145048277075</v>
+        <v>0.04731986564935206</v>
       </c>
       <c r="F66">
-        <v>-0.002877084851028605</v>
+        <v>-0.06927430226638105</v>
       </c>
       <c r="G66">
-        <v>0.008719208881775296</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.001184710730887433</v>
+      </c>
+      <c r="H66">
+        <v>-0.01251316311990416</v>
+      </c>
+      <c r="I66">
+        <v>0.01461723499103556</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.05731427987996458</v>
+        <v>-0.04707543174860133</v>
       </c>
       <c r="C67">
-        <v>0.01104748187777311</v>
+        <v>-0.003474522798637492</v>
       </c>
       <c r="D67">
-        <v>-0.0125267848963826</v>
+        <v>0.002160483317415977</v>
       </c>
       <c r="E67">
-        <v>0.01677095805206244</v>
+        <v>0.009110547302886256</v>
       </c>
       <c r="F67">
-        <v>0.02396034940903357</v>
+        <v>-0.03597054119626201</v>
       </c>
       <c r="G67">
-        <v>0.01634707577124869</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.008467912975125584</v>
+      </c>
+      <c r="H67">
+        <v>-0.04172420404166981</v>
+      </c>
+      <c r="I67">
+        <v>0.03714961161567333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.02952594693577898</v>
+        <v>-0.06288782264999772</v>
       </c>
       <c r="C68">
-        <v>0.2446223644567686</v>
+        <v>-0.2325172877362205</v>
       </c>
       <c r="D68">
-        <v>0.02201479558924058</v>
+        <v>0.02604777518693915</v>
       </c>
       <c r="E68">
-        <v>0.04469384239959637</v>
+        <v>-0.03856324531454631</v>
       </c>
       <c r="F68">
-        <v>-0.02795797454039325</v>
+        <v>-0.05227392056028284</v>
       </c>
       <c r="G68">
-        <v>0.0007670117634348146</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02419906762496592</v>
+      </c>
+      <c r="H68">
+        <v>0.006572105139203575</v>
+      </c>
+      <c r="I68">
+        <v>-0.1199295065730635</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07262153155381225</v>
+        <v>-0.07257990895250949</v>
       </c>
       <c r="C69">
-        <v>-0.009840665877998899</v>
+        <v>0.0187335012164406</v>
       </c>
       <c r="D69">
-        <v>-0.02521926281965983</v>
+        <v>0.005429899457698587</v>
       </c>
       <c r="E69">
-        <v>-0.01411270568333346</v>
+        <v>0.03235014727540973</v>
       </c>
       <c r="F69">
-        <v>-0.02355345709888057</v>
+        <v>0.0009005834676679735</v>
       </c>
       <c r="G69">
-        <v>-0.007058780260296838</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.03573948056517133</v>
+      </c>
+      <c r="H69">
+        <v>-0.02459472678568883</v>
+      </c>
+      <c r="I69">
+        <v>-0.00486374893012381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2730,248 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.02003684311831954</v>
+        <v>-0.05907543784576311</v>
       </c>
       <c r="C71">
-        <v>0.2837285393664363</v>
+        <v>-0.2488076456602476</v>
       </c>
       <c r="D71">
-        <v>0.03632779455783287</v>
+        <v>0.03024484814116603</v>
       </c>
       <c r="E71">
-        <v>0.07878477014382289</v>
+        <v>-0.06532078367826884</v>
       </c>
       <c r="F71">
-        <v>-0.02547805649681622</v>
+        <v>-0.07121035335055526</v>
       </c>
       <c r="G71">
-        <v>0.01562819275127351</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02067433390750305</v>
+      </c>
+      <c r="H71">
+        <v>-0.0189563123700952</v>
+      </c>
+      <c r="I71">
+        <v>-0.103886153110387</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1289370323896256</v>
+        <v>-0.1252790265628509</v>
       </c>
       <c r="C72">
-        <v>0.01737597239698862</v>
+        <v>0.03255109093973142</v>
       </c>
       <c r="D72">
-        <v>-0.04107304976359308</v>
+        <v>0.006168418860754438</v>
       </c>
       <c r="E72">
-        <v>0.08082195987158121</v>
+        <v>0.06434157002622154</v>
       </c>
       <c r="F72">
-        <v>0.0162006200205161</v>
+        <v>-0.08566866226976097</v>
       </c>
       <c r="G72">
-        <v>-0.01344803973828578</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.008659929330358498</v>
+      </c>
+      <c r="H72">
+        <v>0.0302345636042234</v>
+      </c>
+      <c r="I72">
+        <v>0.1139521314050056</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2877315732221105</v>
+        <v>-0.2734421562018994</v>
       </c>
       <c r="C73">
-        <v>0.1918065087963289</v>
+        <v>-0.06927861759150022</v>
       </c>
       <c r="D73">
-        <v>0.0620913804870042</v>
+        <v>0.09543209625768261</v>
       </c>
       <c r="E73">
-        <v>0.3219944361819742</v>
+        <v>-0.04232052288928971</v>
       </c>
       <c r="F73">
-        <v>0.0429241847483593</v>
+        <v>-0.3064066568865586</v>
       </c>
       <c r="G73">
-        <v>0.1213113487469517</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.4879278013163486</v>
+      </c>
+      <c r="H73">
+        <v>0.08174141597568488</v>
+      </c>
+      <c r="I73">
+        <v>0.2842619477153687</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1606405567844639</v>
+        <v>-0.1505178880464255</v>
       </c>
       <c r="C74">
-        <v>-0.007871249569524447</v>
+        <v>0.0339834224246317</v>
       </c>
       <c r="D74">
-        <v>-0.04101175898280734</v>
+        <v>0.0109972230819725</v>
       </c>
       <c r="E74">
-        <v>-0.04550223829220175</v>
+        <v>0.05409402464546694</v>
       </c>
       <c r="F74">
-        <v>-0.03737026771636899</v>
+        <v>0.06497473473367726</v>
       </c>
       <c r="G74">
-        <v>-0.05915437409216993</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.0239280649637721</v>
+      </c>
+      <c r="H74">
+        <v>0.007189167522354205</v>
+      </c>
+      <c r="I74">
+        <v>-0.03248143639183342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2401422664191667</v>
+        <v>-0.241085973132184</v>
       </c>
       <c r="C75">
-        <v>-0.001100994976785418</v>
+        <v>0.02727384533471837</v>
       </c>
       <c r="D75">
-        <v>-0.07924830408566198</v>
+        <v>0.02587074050805865</v>
       </c>
       <c r="E75">
-        <v>-0.134389631505592</v>
+        <v>0.1170407388168983</v>
       </c>
       <c r="F75">
-        <v>-0.05400551105550519</v>
+        <v>0.1451397003714317</v>
       </c>
       <c r="G75">
-        <v>-0.002793118337510433</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.02511213128218509</v>
+      </c>
+      <c r="H75">
+        <v>-0.02131112742191897</v>
+      </c>
+      <c r="I75">
+        <v>-0.08646061507286716</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2479658949776792</v>
+        <v>-0.2614103271934388</v>
       </c>
       <c r="C76">
-        <v>0.02470537309131828</v>
+        <v>0.01425093374830534</v>
       </c>
       <c r="D76">
-        <v>-0.1097396004670165</v>
+        <v>-0.01359747054564813</v>
       </c>
       <c r="E76">
-        <v>-0.1284210847361708</v>
+        <v>0.1417075548577848</v>
       </c>
       <c r="F76">
-        <v>-0.02757074355123357</v>
+        <v>0.1780281974087</v>
       </c>
       <c r="G76">
-        <v>-0.05204026458700608</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04722569515454857</v>
+      </c>
+      <c r="H76">
+        <v>0.04259351063032904</v>
+      </c>
+      <c r="I76">
+        <v>-0.04790955870462888</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1361725766343007</v>
+        <v>-0.1221305343091129</v>
       </c>
       <c r="C77">
-        <v>-0.06079369128719998</v>
+        <v>0.07543197049432156</v>
       </c>
       <c r="D77">
-        <v>0.03137049287591327</v>
+        <v>0.005943565095465686</v>
       </c>
       <c r="E77">
-        <v>0.1563741964760575</v>
+        <v>-0.02881064588906285</v>
       </c>
       <c r="F77">
-        <v>0.04433884515696677</v>
+        <v>-0.1577367998290816</v>
       </c>
       <c r="G77">
-        <v>0.002617127328822981</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.1836759476534788</v>
+      </c>
+      <c r="H77">
+        <v>0.03872043235771026</v>
+      </c>
+      <c r="I77">
+        <v>-0.2877850530710598</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.08687233306834977</v>
+        <v>-0.07413660652751816</v>
       </c>
       <c r="C78">
-        <v>-0.04944929252418554</v>
+        <v>0.07524513193301904</v>
       </c>
       <c r="D78">
-        <v>0.007577778200381818</v>
+        <v>-0.006888433190040182</v>
       </c>
       <c r="E78">
-        <v>0.05501929985378753</v>
+        <v>0.01463766177430357</v>
       </c>
       <c r="F78">
-        <v>-0.001389391506700235</v>
+        <v>-0.07652914073616852</v>
       </c>
       <c r="G78">
-        <v>-0.003700508975798242</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.02596969554828392</v>
+      </c>
+      <c r="H78">
+        <v>-0.0156039763697446</v>
+      </c>
+      <c r="I78">
+        <v>-0.032383929167103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2991,74 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.05521885378901441</v>
+        <v>-0.1386602392364263</v>
       </c>
       <c r="C80">
-        <v>-0.01119818959298413</v>
+        <v>-0.06678096370073421</v>
       </c>
       <c r="D80">
-        <v>0.06303927065243935</v>
+        <v>-0.9722902247425166</v>
       </c>
       <c r="E80">
-        <v>-0.1015966868004553</v>
+        <v>-0.06751117689862476</v>
       </c>
       <c r="F80">
-        <v>0.9631782966059818</v>
+        <v>-0.05103385345163496</v>
       </c>
       <c r="G80">
-        <v>0.04829389166701948</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04013061264910812</v>
+      </c>
+      <c r="H80">
+        <v>-0.03415577669395951</v>
+      </c>
+      <c r="I80">
+        <v>0.06252542460344666</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1664857160759851</v>
+        <v>-0.1780610386676936</v>
       </c>
       <c r="C81">
-        <v>0.01112232383882076</v>
+        <v>0.005185213876577037</v>
       </c>
       <c r="D81">
-        <v>-0.0587285019881573</v>
+        <v>0.005215765480734492</v>
       </c>
       <c r="E81">
-        <v>-0.175176498926099</v>
+        <v>0.0880275999304327</v>
       </c>
       <c r="F81">
-        <v>-0.03119403287962434</v>
+        <v>0.1568557479523496</v>
       </c>
       <c r="G81">
-        <v>-0.05506124782660075</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.005365224835031182</v>
+      </c>
+      <c r="H81">
+        <v>0.02015202487743663</v>
+      </c>
+      <c r="I81">
+        <v>-0.04619967385861966</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3078,45 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.09137002759084714</v>
+        <v>-0.0692662932899486</v>
       </c>
       <c r="C83">
-        <v>-0.07084420689682598</v>
+        <v>0.05589890992917152</v>
       </c>
       <c r="D83">
-        <v>0.0677554078247726</v>
+        <v>0.01282269509026837</v>
       </c>
       <c r="E83">
-        <v>0.02425170572071328</v>
+        <v>-0.03457130196226593</v>
       </c>
       <c r="F83">
-        <v>-0.04608429289285391</v>
+        <v>-0.04563493096528213</v>
       </c>
       <c r="G83">
-        <v>0.04149835815578764</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04263893422741687</v>
+      </c>
+      <c r="H83">
+        <v>-0.05883313014149364</v>
+      </c>
+      <c r="I83">
+        <v>-0.04188126709668057</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3136,335 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2380628786056672</v>
+        <v>-0.2485307671749386</v>
       </c>
       <c r="C85">
-        <v>-0.05323988716914679</v>
+        <v>0.05723253140222062</v>
       </c>
       <c r="D85">
-        <v>-0.0699112164303041</v>
+        <v>0.0034927886823252</v>
       </c>
       <c r="E85">
-        <v>-0.1581833479459067</v>
+        <v>0.1146129991967076</v>
       </c>
       <c r="F85">
-        <v>-0.00818358302774662</v>
+        <v>0.1812191763519628</v>
       </c>
       <c r="G85">
-        <v>-0.06194469851509562</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.006595299033827121</v>
+      </c>
+      <c r="H85">
+        <v>0.01242365550607671</v>
+      </c>
+      <c r="I85">
+        <v>-0.07260974830842712</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.042570530153783</v>
+        <v>-0.02820469805139931</v>
       </c>
       <c r="C86">
-        <v>-0.04478110376530996</v>
+        <v>0.04900316042394712</v>
       </c>
       <c r="D86">
-        <v>-0.005165932143786895</v>
+        <v>0.0006269763610090435</v>
       </c>
       <c r="E86">
-        <v>0.06878404555969531</v>
+        <v>0.01799512795603761</v>
       </c>
       <c r="F86">
-        <v>0.007903076500955723</v>
+        <v>-0.07936884528775474</v>
       </c>
       <c r="G86">
-        <v>-0.01850514212245639</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.06701876629395993</v>
+      </c>
+      <c r="H86">
+        <v>-0.002808661422708359</v>
+      </c>
+      <c r="I86">
+        <v>-0.02656524438598155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02655103232708925</v>
+        <v>-0.03318783401530899</v>
       </c>
       <c r="C87">
-        <v>0.05380443570229243</v>
+        <v>-0.009395288174501595</v>
       </c>
       <c r="D87">
-        <v>0.0007446701477033717</v>
+        <v>0.001905467641203824</v>
       </c>
       <c r="E87">
-        <v>0.09401641700890345</v>
+        <v>0.001659204037048832</v>
       </c>
       <c r="F87">
-        <v>0.009642214866501698</v>
+        <v>-0.1021370116739726</v>
       </c>
       <c r="G87">
-        <v>-0.04052645330515679</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.007693131531258664</v>
+      </c>
+      <c r="H87">
+        <v>0.02624395728140394</v>
+      </c>
+      <c r="I87">
+        <v>0.006163060964482062</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.03071372901083427</v>
+        <v>-0.03153284549089606</v>
       </c>
       <c r="C88">
-        <v>-0.02551107841035193</v>
+        <v>0.01074095254635467</v>
       </c>
       <c r="D88">
-        <v>-0.001198723620125082</v>
+        <v>-0.008660798732207016</v>
       </c>
       <c r="E88">
-        <v>-0.01050703583364056</v>
+        <v>0.007305313441006894</v>
       </c>
       <c r="F88">
-        <v>0.004674870115534808</v>
+        <v>0.01169138853254754</v>
       </c>
       <c r="G88">
-        <v>-0.00451973486519924</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03525720286407644</v>
+      </c>
+      <c r="H88">
+        <v>-0.04409837627012891</v>
+      </c>
+      <c r="I88">
+        <v>0.0110761623774125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.0204132917591425</v>
+        <v>-0.09356333650458533</v>
       </c>
       <c r="C89">
-        <v>0.3821973098783928</v>
+        <v>-0.3847794934405009</v>
       </c>
       <c r="D89">
-        <v>0.09955196308608283</v>
+        <v>0.05939398460547307</v>
       </c>
       <c r="E89">
-        <v>0.001821725099051193</v>
+        <v>-0.08515307110507629</v>
       </c>
       <c r="F89">
-        <v>-0.03438055591960684</v>
+        <v>-0.02942913265899651</v>
       </c>
       <c r="G89">
-        <v>0.003199142399010867</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04368699172078602</v>
+      </c>
+      <c r="H89">
+        <v>-0.02854909692657656</v>
+      </c>
+      <c r="I89">
+        <v>-0.2260472121129085</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.01253071244563683</v>
+        <v>-0.0589695681937603</v>
       </c>
       <c r="C90">
-        <v>0.2877366535493754</v>
+        <v>-0.3171060862877237</v>
       </c>
       <c r="D90">
-        <v>0.05305227882549944</v>
+        <v>0.02970181647919576</v>
       </c>
       <c r="E90">
-        <v>0.05489785257658657</v>
+        <v>-0.0699073093606133</v>
       </c>
       <c r="F90">
-        <v>-0.0202535242375988</v>
+        <v>-0.03399464704804675</v>
       </c>
       <c r="G90">
-        <v>0.02814288493942456</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.001703238366480581</v>
+      </c>
+      <c r="H90">
+        <v>-0.01136100936787105</v>
+      </c>
+      <c r="I90">
+        <v>-0.1817981725642597</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2781242895207283</v>
+        <v>-0.2863987498427747</v>
       </c>
       <c r="C91">
-        <v>-0.04311454370085338</v>
+        <v>0.05197795000399039</v>
       </c>
       <c r="D91">
-        <v>-0.08135120438654182</v>
+        <v>0.01131451964099785</v>
       </c>
       <c r="E91">
-        <v>-0.2686358560916606</v>
+        <v>0.1079299564274888</v>
       </c>
       <c r="F91">
-        <v>-0.0128958110388962</v>
+        <v>0.2686666586794577</v>
       </c>
       <c r="G91">
-        <v>-0.02950852149987007</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.01996652749999347</v>
+      </c>
+      <c r="H91">
+        <v>0.023119521718103</v>
+      </c>
+      <c r="I91">
+        <v>-0.09144708169277875</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.05575949578280399</v>
+        <v>-0.1334710569590495</v>
       </c>
       <c r="C92">
-        <v>0.4044955978364483</v>
+        <v>-0.4095151354980539</v>
       </c>
       <c r="D92">
-        <v>0.1603798404482512</v>
+        <v>0.0173923764895525</v>
       </c>
       <c r="E92">
-        <v>-0.1159193009863802</v>
+        <v>-0.1160861873625446</v>
       </c>
       <c r="F92">
-        <v>0.08557579416616599</v>
+        <v>0.1220189632368384</v>
       </c>
       <c r="G92">
-        <v>-0.06222352676298937</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.4779564323055235</v>
+      </c>
+      <c r="H92">
+        <v>-0.03218388370021325</v>
+      </c>
+      <c r="I92">
+        <v>0.4939226685114734</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.007697632507689306</v>
+        <v>-0.07711392830869328</v>
       </c>
       <c r="C93">
-        <v>0.3707474594672611</v>
+        <v>-0.3830256955583038</v>
       </c>
       <c r="D93">
-        <v>0.08591650976691473</v>
+        <v>0.05117004936947325</v>
       </c>
       <c r="E93">
-        <v>-0.02498550529115742</v>
+        <v>-0.1098424922198815</v>
       </c>
       <c r="F93">
-        <v>0.01100013849016576</v>
+        <v>0.002821072148748997</v>
       </c>
       <c r="G93">
-        <v>0.04319684956226114</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.01745096277805338</v>
+      </c>
+      <c r="H93">
+        <v>-0.05104505479194542</v>
+      </c>
+      <c r="I93">
+        <v>-0.1083845766013574</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2888086219153757</v>
+        <v>-0.3117857940343062</v>
       </c>
       <c r="C94">
-        <v>0.08853624210836875</v>
+        <v>-0.03408361410218302</v>
       </c>
       <c r="D94">
-        <v>-0.05426867054131056</v>
+        <v>0.03930163159996657</v>
       </c>
       <c r="E94">
-        <v>-0.3990572053224103</v>
+        <v>0.1405808076134025</v>
       </c>
       <c r="F94">
-        <v>-0.03652607634480213</v>
+        <v>0.3391647417008075</v>
       </c>
       <c r="G94">
-        <v>-0.3885535493188912</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.06100491970806627</v>
+      </c>
+      <c r="H94">
+        <v>0.2451580100920414</v>
+      </c>
+      <c r="I94">
+        <v>-0.02094074432945065</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1614102921086419</v>
+        <v>-0.1283375922503624</v>
       </c>
       <c r="C95">
-        <v>-0.04461505614598252</v>
+        <v>0.05917364089602375</v>
       </c>
       <c r="D95">
-        <v>-0.0002166094308372493</v>
+        <v>0.08463744733607892</v>
       </c>
       <c r="E95">
-        <v>-0.2804145180687114</v>
+        <v>0.03071030153082566</v>
       </c>
       <c r="F95">
-        <v>-0.07186463337687135</v>
+        <v>0.0829482737493899</v>
       </c>
       <c r="G95">
-        <v>0.8626555110873695</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.0145119734936596</v>
+      </c>
+      <c r="H95">
+        <v>-0.8800590468283143</v>
+      </c>
+      <c r="I95">
+        <v>0.1991971750308468</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3484,16 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3513,45 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2147484556172568</v>
+        <v>-0.2077613559641893</v>
       </c>
       <c r="C98">
-        <v>0.1039951359311578</v>
+        <v>-0.0555312518142776</v>
       </c>
       <c r="D98">
-        <v>0.0387805890013043</v>
+        <v>0.06642691989264402</v>
       </c>
       <c r="E98">
-        <v>0.0905944173286107</v>
+        <v>-0.03152380816356033</v>
       </c>
       <c r="F98">
-        <v>-0.04259682268122958</v>
+        <v>-0.1639974978689951</v>
       </c>
       <c r="G98">
-        <v>0.09776410819301527</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.3267979964596542</v>
+      </c>
+      <c r="H98">
+        <v>0.02181165562132141</v>
+      </c>
+      <c r="I98">
+        <v>0.1677795714775905</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3571,16 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3600,103 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.0256627209889129</v>
+        <v>-0.01736588104897779</v>
       </c>
       <c r="C101">
-        <v>-0.02383658857581533</v>
+        <v>0.02738380967198767</v>
       </c>
       <c r="D101">
-        <v>-0.03289853705507977</v>
+        <v>-0.005918276907551442</v>
       </c>
       <c r="E101">
-        <v>0.03703495806424305</v>
+        <v>0.03551221188132733</v>
       </c>
       <c r="F101">
-        <v>-0.008333296900434339</v>
+        <v>-0.06557396178628516</v>
       </c>
       <c r="G101">
-        <v>-0.0006181099331345999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1207721898893998</v>
+      </c>
+      <c r="H101">
+        <v>0.006718672799230837</v>
+      </c>
+      <c r="I101">
+        <v>0.08015011806185537</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1113087899539287</v>
+        <v>-0.1164719243937954</v>
       </c>
       <c r="C102">
-        <v>-0.03021748417269103</v>
+        <v>0.03055332972680428</v>
       </c>
       <c r="D102">
-        <v>-0.04214446194428585</v>
+        <v>-0.007520870939670142</v>
       </c>
       <c r="E102">
-        <v>-0.09568736561611331</v>
+        <v>0.0572736828287289</v>
       </c>
       <c r="F102">
-        <v>0.02091701631602533</v>
+        <v>0.1090613884381675</v>
       </c>
       <c r="G102">
-        <v>-0.008262426346194878</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.00732951767378268</v>
+      </c>
+      <c r="H102">
+        <v>-0.003565143287346872</v>
+      </c>
+      <c r="I102">
+        <v>-0.06843320954521742</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.02084837728914923</v>
+        <v>-0.0293578766590968</v>
       </c>
       <c r="C103">
-        <v>-0.005292246737876379</v>
+        <v>0.007068642746192068</v>
       </c>
       <c r="D103">
-        <v>-0.01102175457768401</v>
+        <v>-0.008955116049871294</v>
       </c>
       <c r="E103">
-        <v>-0.03421122009079394</v>
+        <v>0.02081893653886464</v>
       </c>
       <c r="F103">
-        <v>-0.007815572250107806</v>
+        <v>0.02667906850477518</v>
       </c>
       <c r="G103">
-        <v>-0.008608975767184682</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01406602827510346</v>
+      </c>
+      <c r="H103">
+        <v>-0.01172638196601186</v>
+      </c>
+      <c r="I103">
+        <v>-0.02255241981462535</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +3714,12 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
